--- a/Excel_Challenge_517 - Arrange Numbers to Form Square Chains.xlsx
+++ b/Excel_Challenge_517 - Arrange Numbers to Form Square Chains.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D91B25-EE10-4524-872F-66EE4FAB2CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A56D768-3EAC-401D-A544-718BABD8E6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Numbers</t>
   </si>
@@ -573,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -670,4 +693,144 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75509B72-08E2-485B-A508-07B8A0458596}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">_xlfn._xlws.FILTER($A$2:$A$10,($A$2:$A$10&lt;&gt;E$2:$E$2)*(MOD(($A$2:$A$10+E$2)^0.5,1)=0))</f>
+        <v>1</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">_xlfn.LET(_xlpm.z,_xlfn.UNIQUE(_xlfn.VSTACK($A$2:$A$10,TRANSPOSE($E2:F2)),,TRUE),_xlfn._xlws.FILTER(_xlpm.z,(MOD((_xlpm.z+F$2)^0.5,1)=0)))</f>
+        <v>15</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2:H3">_xlfn.LET(_xlpm.z,_xlfn.UNIQUE(_xlfn.VSTACK($A$2:$A$10,TRANSPOSE($E2:G2)),,TRUE),_xlfn._xlws.FILTER(_xlpm.z,(MOD((_xlpm.z+G$2)^0.5,1)=0)))</f>
+        <v>10</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">_xlfn.LET(_xlpm.z,_xlfn.UNIQUE(_xlfn.VSTACK($A$2:$A$10,TRANSPOSE($E2:H2)),,TRUE),_xlfn._xlws.FILTER(_xlpm.z,(MOD((_xlpm.z+H$2)^0.5,1)=0)))</f>
+        <v>6</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">_xlfn.LET(_xlpm.z,_xlfn.UNIQUE(_xlfn.VSTACK($A$2:$A$10,TRANSPOSE($E2:I2)),,TRUE),_xlfn._xlws.FILTER(_xlpm.z,(MOD((_xlpm.z+I$2)^0.5,1)=0)))</f>
+        <v>30</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" ref="K2">_xlfn.LET(_xlpm.z,_xlfn.UNIQUE(_xlfn.VSTACK($A$2:$A$10,TRANSPOSE($E2:J2)),,TRUE),_xlfn._xlws.FILTER(_xlpm.z,(MOD((_xlpm.z+J$2)^0.5,1)=0)))</f>
+        <v>34</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2:L3">_xlfn.LET(_xlpm.z,_xlfn.UNIQUE(_xlfn.VSTACK($A$2:$A$10,TRANSPOSE($E2:K2)),,TRUE),_xlfn._xlws.FILTER(_xlpm.z,(MOD((_xlpm.z+K$2)^0.5,1)=0)))</f>
+        <v>2</v>
+      </c>
+      <c r="M2" cm="1">
+        <f t="array" ref="M2">_xlfn.LET(_xlpm.z,_xlfn.UNIQUE(_xlfn.VSTACK($A$2:$A$10,TRANSPOSE($E2:L2)),,TRUE),_xlfn._xlws.FILTER(_xlpm.z,(MOD((_xlpm.z+L$2)^0.5,1)=0)))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>34</v>
+      </c>
+      <c r="L3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_517 - Arrange Numbers to Form Square Chains.xlsx
+++ b/Excel_Challenge_517 - Arrange Numbers to Form Square Chains.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A56D768-3EAC-401D-A544-718BABD8E6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D138D2-9CA9-4198-897F-6BB07AFAD266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="MySingleVersion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>Numbers</t>
   </si>
@@ -699,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75509B72-08E2-485B-A508-07B8A0458596}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,4 +834,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2762C420-58EF-4DDB-9EEC-646DD98E2637}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_517 - Arrange Numbers to Form Square Chains.xlsx
+++ b/Excel_Challenge_517 - Arrange Numbers to Form Square Chains.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D138D2-9CA9-4198-897F-6BB07AFAD266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D789C685-D5F9-4C52-B1D2-FADCEC89C316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
